--- a/ゲーム制作Ⅲ　企画・仕様書.xlsx
+++ b/ゲーム制作Ⅲ　企画・仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5df04b1cc0504beb/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himaw\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{DC93AE64-2222-4782-AFFA-9A7E1B964BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8EA502-3D2C-44FD-952C-126C66D6B13E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470E24B-33CC-4C26-A3D6-64215EA746D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94759D55-AD09-4F4E-8C56-B0CC24E186B6}"/>
+    <workbookView xWindow="9900" yWindow="900" windowWidth="18900" windowHeight="14700" xr2:uid="{94759D55-AD09-4F4E-8C56-B0CC24E186B6}"/>
   </bookViews>
   <sheets>
     <sheet name="企画" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>ゲームの種類</t>
     <rPh sb="4" eb="6">
@@ -134,19 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆発してプレイヤーを吹き飛ばす</t>
-    <rPh sb="0" eb="2">
-      <t>バクハツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>起爆したら消滅</t>
     <rPh sb="0" eb="2">
       <t>キバク</t>
@@ -199,89 +186,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消滅、スコア加算</t>
-    <rPh sb="0" eb="2">
-      <t>ショウメツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初めは機雷少な目。チュートリアル</t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キライ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だんだん機雷が多くなる</t>
-    <rPh sb="4" eb="6">
-      <t>キライ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機雷に衝突すると吹き飛ばされ、残基が1減る</t>
-    <rPh sb="0" eb="2">
-      <t>キライ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ザンキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残基</t>
-    <rPh sb="0" eb="2">
-      <t>ザンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り残基</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：進む</t>
-    <rPh sb="1" eb="2">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -292,20 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S：下降</t>
-    <rPh sb="2" eb="4">
-      <t>カコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W：上昇</t>
-    <rPh sb="2" eb="4">
-      <t>ジョウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A：左折</t>
     <rPh sb="2" eb="4">
       <t>サセツ</t>
@@ -314,6 +205,125 @@
   </si>
   <si>
     <t>SPACE：ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W：前進</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S：後退</t>
+    <rPh sb="2" eb="4">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス：向き</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機雷に衝突すると吹き飛ばされ、ライフが1減る</t>
+    <rPh sb="0" eb="2">
+      <t>キライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消滅、HPとスコア加算</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが範囲内に4秒間居ると爆発してプレイヤーを吹き飛ばす</t>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル用に初めは機雷少な目</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キライ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間からだんだん機雷が多くなる</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キライ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りHP</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,8 +469,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -481,8 +491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4029075" y="723900"/>
-          <a:ext cx="4933950" cy="4514850"/>
+          <a:off x="4029075" y="0"/>
+          <a:ext cx="4933950" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst/>
@@ -1204,7 +1214,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1225,8 +1235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324725" y="4867275"/>
-          <a:ext cx="409575" cy="142875"/>
+          <a:off x="7324725" y="4933950"/>
+          <a:ext cx="409575" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1565,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A80BAF-46A2-452C-9105-D7085DF87341}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1605,7 +1615,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1619,23 +1634,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4CD5F2-A69B-4C15-9038-8C471BEB421E}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1679,42 +1694,42 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1723,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1755,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1764,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1772,13 +1787,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -1787,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -1795,20 +1810,20 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -1816,31 +1831,31 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作Ⅲ　企画・仕様書.xlsx
+++ b/ゲーム制作Ⅲ　企画・仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himaw\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himaw\OneDrive\デスクトップ\ゲーム制作Ⅲ\10Tagawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470E24B-33CC-4C26-A3D6-64215EA746D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D4540-A7B3-486E-9218-1A5EBC225748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="900" windowWidth="18900" windowHeight="14700" xr2:uid="{94759D55-AD09-4F4E-8C56-B0CC24E186B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94759D55-AD09-4F4E-8C56-B0CC24E186B6}"/>
   </bookViews>
   <sheets>
     <sheet name="企画" sheetId="1" r:id="rId1"/>
@@ -190,20 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D：右折</t>
-    <rPh sb="2" eb="4">
-      <t>ウセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A：左折</t>
-    <rPh sb="2" eb="4">
-      <t>サセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SPACE：ダッシュ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,13 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マウス：向き</t>
-    <rPh sb="4" eb="5">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機雷に衝突すると吹き飛ばされ、ライフが1減る</t>
     <rPh sb="0" eb="2">
       <t>キライ</t>
@@ -324,6 +303,33 @@
   </si>
   <si>
     <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D：右進</t>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A：左進</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス：視点</t>
+    <rPh sb="4" eb="6">
+      <t>シテン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -362,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -418,13 +424,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +474,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1659,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1677,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1694,42 +1733,43 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1738,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1770,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1802,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -1816,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -1834,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/ゲーム制作Ⅲ　企画・仕様書.xlsx
+++ b/ゲーム制作Ⅲ　企画・仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himaw\OneDrive\デスクトップ\ゲーム制作Ⅲ\10Tagawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D4540-A7B3-486E-9218-1A5EBC225748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3575F0AA-BA68-4FC5-8251-751BEAA826FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94759D55-AD09-4F4E-8C56-B0CC24E186B6}"/>
   </bookViews>
@@ -124,16 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その場に留まる</t>
-    <rPh sb="2" eb="3">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>起爆したら消滅</t>
     <rPh sb="0" eb="2">
       <t>キバク</t>
@@ -329,6 +319,25 @@
     <t>マウス：視点</t>
     <rPh sb="4" eb="6">
       <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場に留まり、波の影響で揺れる</t>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -354,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -448,13 +463,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,7 +521,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,12 +1702,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1725,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1689,40 +1737,40 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C2" s="4"/>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>70</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="L2">
-        <v>90</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -1732,66 +1780,146 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
@@ -1800,103 +1928,206 @@
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
